--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/HAWAII_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/HAWAII_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C25">
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="30">
@@ -841,7 +841,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C35">
@@ -898,7 +898,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C39">
@@ -911,7 +911,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C40">
@@ -950,7 +950,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C43">
@@ -1020,7 +1020,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C48">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C52">
@@ -1085,7 +1085,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C53">
@@ -1347,7 +1347,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C72">
@@ -1386,7 +1386,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C75">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C80">
@@ -1469,7 +1469,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C81">
@@ -1495,7 +1495,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C83">
@@ -1508,7 +1508,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C84">
@@ -1521,7 +1521,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C85">
@@ -1643,7 +1643,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C94">
@@ -1669,7 +1669,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C96">
@@ -1682,7 +1682,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C97">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C101">
@@ -2042,41 +2042,6 @@
       </c>
       <c r="D121">
         <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/HAWAII_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/HAWAII_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Antonio La Isla</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Amatitán</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Ixpantepec Nieves</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Juan Mixtepec - Distr. 08 -</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Miguel Coatlán</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Mazapiltepec De Juárez</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -1719,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1781,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Fronteras</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1949,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1962,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1975,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1988,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2019,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
